--- a/nmadb/481766.xlsx
+++ b/nmadb/481766.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Oxcarbazepine 1200 mg</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>r</t>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Eslicarbazepine 800 mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Lacosamide 200 mg</t>
@@ -209,12 +203,15 @@
   <si>
     <t>Ben-Menachem 2007</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,30 +591,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -635,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,7 +706,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -744,7 +740,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -920,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="30" customWidth="1"/>
@@ -940,7 +935,7 @@
     <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -951,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>2010</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -988,10 +983,12 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
       <c r="D3" s="12">
         <v>1</v>
       </c>
@@ -1005,8 +1002,11 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
       <c r="D4" s="4">
         <v>3</v>
       </c>
@@ -1021,12 +1021,12 @@
       <c r="I4"/>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="8">
         <v>2009</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -1045,10 +1045,12 @@
       <c r="I5"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="5" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
@@ -1065,8 +1067,11 @@
       <c r="I6" s="33"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="8"/>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
@@ -1085,12 +1090,12 @@
       </c>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>2009</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11">
         <v>3</v>
@@ -1109,14 +1114,16 @@
         <v>2</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="20.25" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
@@ -1135,8 +1142,11 @@
       </c>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="8"/>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -1151,16 +1161,16 @@
         <v>4</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8">
         <v>4</v>
@@ -1183,11 +1193,11 @@
       </c>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
+      <c r="C12" s="8">
+        <v>4</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -1203,16 +1213,16 @@
         <v>6</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="8">
         <v>2007</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
@@ -1235,7 +1245,10 @@
       </c>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
@@ -1250,7 +1263,10 @@
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
       <c r="D15" s="4">
         <v>5</v>
       </c>
@@ -1265,12 +1281,12 @@
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>2009</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
         <v>6</v>
@@ -1289,7 +1305,10 @@
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1304,7 +1323,10 @@
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
       <c r="D18" s="4">
         <v>5</v>
       </c>
@@ -1318,12 +1340,12 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>2010</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>7</v>
@@ -1340,7 +1362,10 @@
       <c r="G19" s="14"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
       <c r="D20" s="4">
         <v>5</v>
       </c>
@@ -1353,12 +1378,12 @@
       <c r="G20" s="18"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>2000</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
         <v>8</v>
@@ -1374,7 +1399,10 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
       <c r="D22" s="46">
         <v>6</v>
       </c>
@@ -1386,7 +1414,10 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
       <c r="D23" s="4">
         <v>7</v>
       </c>
@@ -1398,28 +1429,28 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="G31" s="9"/>
     </row>
   </sheetData>
@@ -1435,12 +1466,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1452,12 +1483,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
